--- a/results/mp/logistic/home-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,169 +46,193 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>filters</t>
   </si>
   <si>
-    <t>send</t>
-  </si>
-  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>lid</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>iron</t>
+    <t>after</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>machine</t>
+    <t>but</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
   </si>
   <si>
     <t>fit</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>even</t>
+    <t>if</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -229,28 +253,25 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -611,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9203539823008849</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.8359375</v>
+        <v>0.8046875</v>
       </c>
       <c r="L3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.898989898989899</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.8043478260869565</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8898305084745762</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.7741935483870968</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>0.7050847457627119</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8490566037735849</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.6919504643962848</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8269230769230769</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>0.5584415584415584</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.825</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.4285714285714285</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.3428571428571429</v>
+        <v>0.2171428571428571</v>
       </c>
       <c r="L11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8082191780821918</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C12">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.3150684931506849</v>
+        <v>0.1581059390048154</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7931034482758621</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,31 +1219,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.2106109324758842</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="L13">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>982</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.772972972972973</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C14">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,31 +1269,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.2072072072072072</v>
+        <v>0.01881331403762663</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>88</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,49 +1301,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C15">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>24</v>
-      </c>
-      <c r="D15">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15">
-        <v>0.1082191780821918</v>
-      </c>
-      <c r="L15">
-        <v>79</v>
-      </c>
-      <c r="M15">
-        <v>79</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1356,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6764705882352942</v>
+        <v>0.6037037037037037</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>1141</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>1141</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1382,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6619718309859155</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C18">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1408,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6571428571428571</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1434,13 +1431,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6518518518518519</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C20">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1460,13 +1457,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6470588235294118</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1478,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1486,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6415094339622641</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1512,13 +1509,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6333333333333333</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1538,13 +1535,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6132075471698113</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1564,13 +1561,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C25">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1582,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1590,13 +1587,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5897435897435898</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1608,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1616,13 +1613,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5891472868217055</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1634,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1642,13 +1639,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.581081081081081</v>
+        <v>0.3432432432432432</v>
       </c>
       <c r="C28">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1660,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1668,13 +1665,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5632183908045977</v>
+        <v>0.3203883495145631</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1686,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1694,13 +1691,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5454545454545454</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1712,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1720,13 +1717,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.509090909090909</v>
+        <v>0.2626472626472626</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1738,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1746,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.2625698324022346</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1764,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1772,13 +1769,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4888888888888889</v>
+        <v>0.2565055762081784</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1790,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1798,13 +1795,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4807692307692308</v>
+        <v>0.2355555555555555</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1824,13 +1821,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4601769911504425</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C35">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1842,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1850,13 +1847,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4444444444444444</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1868,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1876,13 +1873,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4077669902912621</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1894,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1902,13 +1899,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3814432989690721</v>
+        <v>0.145</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1920,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>60</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1928,13 +1925,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3798882681564246</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1946,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>111</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1954,13 +1951,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3717948717948718</v>
+        <v>0.1395555555555555</v>
       </c>
       <c r="C40">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1972,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>98</v>
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1980,13 +1977,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.31</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2006,13 +2003,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2936507936507937</v>
+        <v>0.09863945578231292</v>
       </c>
       <c r="C42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2024,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>89</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2032,13 +2029,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.26</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="C43">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2050,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>148</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2058,13 +2055,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2528735632183908</v>
+        <v>0.06267029972752043</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>65</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2084,13 +2081,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2323232323232323</v>
+        <v>0.05783582089552239</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>76</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2110,13 +2107,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2275862068965517</v>
+        <v>0.05532359081419624</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2128,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>112</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2136,13 +2133,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2047619047619048</v>
+        <v>0.05259087393658159</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2154,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>167</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2162,13 +2159,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2035398230088496</v>
+        <v>0.04954367666232073</v>
       </c>
       <c r="C48">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2180,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>90</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2188,13 +2185,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1913746630727763</v>
+        <v>0.04946236559139785</v>
       </c>
       <c r="C49">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>300</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2214,13 +2211,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1505376344086022</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2232,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>158</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2240,13 +2237,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1428571428571428</v>
+        <v>0.04416809605488851</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="D51">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2258,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>252</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2266,25 +2263,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1404494382022472</v>
+        <v>0.04182735093444082</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>153</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2292,25 +2289,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1333333333333333</v>
+        <v>0.04011259676284307</v>
       </c>
       <c r="C53">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>637</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2318,13 +2315,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1204013377926421</v>
+        <v>0.03945578231292517</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>263</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2344,25 +2341,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1111111111111111</v>
+        <v>0.03820497271073378</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>176</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2370,25 +2367,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08877284595300261</v>
+        <v>0.02917962209997608</v>
       </c>
       <c r="C56">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="D56">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>698</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2396,13 +2393,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07073170731707316</v>
+        <v>0.02783964365256125</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2414,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>381</v>
+        <v>873</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2422,25 +2419,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.05852417302798982</v>
+        <v>0.02622192229827437</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>370</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2448,25 +2445,233 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.02253032928942808</v>
+        <v>0.02115702479338843</v>
       </c>
       <c r="C59">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D59">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E59">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.02110667427267541</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>39</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60">
+        <v>0.95</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.02033898305084746</v>
+      </c>
+      <c r="C61">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.01981981981981982</v>
+      </c>
+      <c r="C62">
+        <v>77</v>
+      </c>
+      <c r="D62">
+        <v>79</v>
+      </c>
+      <c r="E62">
+        <v>0.03</v>
+      </c>
+      <c r="F62">
+        <v>0.97</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.01782485145957117</v>
+      </c>
+      <c r="C63">
+        <v>69</v>
+      </c>
+      <c r="D63">
+        <v>76</v>
+      </c>
+      <c r="E63">
+        <v>0.09</v>
+      </c>
+      <c r="F63">
+        <v>0.91</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.01386861313868613</v>
+      </c>
+      <c r="C64">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>0.11</v>
+      </c>
+      <c r="F64">
+        <v>0.89</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.01352201257861635</v>
+      </c>
+      <c r="C65">
+        <v>43</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
         <v>0.1</v>
       </c>
-      <c r="F59">
+      <c r="F65">
         <v>0.9</v>
       </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>1128</v>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.01173450678401173</v>
+      </c>
+      <c r="C66">
+        <v>32</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>0.09</v>
+      </c>
+      <c r="F66">
+        <v>0.91</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.007628294036061026</v>
+      </c>
+      <c r="C67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>0.27</v>
+      </c>
+      <c r="F67">
+        <v>0.73</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
